--- a/testing/test_results.xlsx
+++ b/testing/test_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>best_model_episode_2895.pt</t>
+          <t>alternated_3.pt</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -509,32 +509,32 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>best_model_episode_2896.pt</t>
+          <t>best_model_episode_2895.pt</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>best_model_episode_2897.pt</t>
+          <t>best_model_episode_2896.pt</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -544,16 +544,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>best_model_episode_2898.pt</t>
+          <t>best_model_episode_2897.pt</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -563,54 +563,54 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>best_model_episode_2899.pt</t>
+          <t>best_model_episode_2898.pt</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>best_model_episode_2900.pt</t>
+          <t>best_model_episode_2899.pt</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>best_model_episode_2901.pt</t>
+          <t>best_model_episode_2900.pt</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -620,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>best_model_episode_2902.pt</t>
+          <t>best_model_episode_2901.pt</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>best_model_episode_2903.pt</t>
+          <t>best_model_episode_2902.pt</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -661,13 +661,13 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>best_model_episode_2904.pt</t>
+          <t>best_model_episode_2903.pt</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>best_model_episode_2905.pt</t>
+          <t>best_model_episode_2904.pt</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -696,16 +696,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>best_model_episode_2906.pt</t>
+          <t>best_model_episode_2905.pt</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>best_model_episode_2907.pt</t>
+          <t>best_model_episode_2906.pt</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>best_model_episode_2908.pt</t>
+          <t>best_model_episode_2907.pt</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -753,16 +753,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>best_model_episode_2909.pt</t>
+          <t>best_model_episode_2908.pt</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -772,16 +772,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>best_model_episode_2910.pt</t>
+          <t>best_model_episode_2909.pt</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -794,13 +794,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>best_model_episode_2911.pt</t>
+          <t>best_model_episode_2910.pt</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -810,16 +810,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>best_model_episode_2912.pt</t>
+          <t>best_model_episode_2911.pt</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -832,13 +832,13 @@
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>best_model_episode_2913.pt</t>
+          <t>best_model_episode_2912.pt</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -848,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lex_jaywalker_QAgent.pt</t>
+          <t>best_model_episode_2913.pt</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>n_cars_0.pt</t>
+          <t>Lex_jaywalker_QAgent.pt</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>n_cars_1.pt</t>
+          <t>n_cars_0.pt</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -905,28 +905,47 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>n_cars_1.pt</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>42</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>one_scenario_best_model_episode2208_0_1.03_0_1.pt</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>100</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
         <v>0</v>
       </c>
     </row>
